--- a/starter/src/main/resources/excel/taboo.xlsx
+++ b/starter/src/main/resources/excel/taboo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30940" windowHeight="11000"/>
+    <workbookView windowWidth="29440" windowHeight="10100"/>
   </bookViews>
   <sheets>
     <sheet name="自动回复" sheetId="1" r:id="rId1"/>
@@ -27,30 +27,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>匹配关键词：
-    * 有时候我们希望能匹配多个关键词时，可以使用 “|” 分隔不同的关键词
-    * 模糊匹配使用 “*” 符号，例如 “你好*”，那么只要用户输入的内容以 “你好” 开头就会回复你设置的回复内容.
-    * 开始结束匹配符，可以使用 “啥时[and]发货” 这样表达，那么只要用户输入的内容以 “啥时” 开头，并且以 “发货” 结尾，就能匹配上你设置的关键词
-回复内容：
-    * 有时候我们希望能有多个随机回答，可以使用 “|” 来分隔不同的句子；
-    * 使用 “[~]” 表示一个随机符，在拼多多平台等平台，是不允许每次重复一个回答的，所以可以插入一个随机符，以规避这个问题；</t>
-  </si>
-  <si>
-    <t>关键词</t>
-  </si>
-  <si>
-    <t>匹配模式</t>
-  </si>
-  <si>
-    <t>敏感词1</t>
-  </si>
-  <si>
-    <t>模糊匹配</t>
-  </si>
-  <si>
-    <t>敏感词2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>敏感词</t>
+  </si>
+  <si>
+    <t>暴恐</t>
+  </si>
+  <si>
+    <t>买枪</t>
+  </si>
+  <si>
+    <t>买炸药</t>
+  </si>
+  <si>
+    <t>买炸弹</t>
+  </si>
+  <si>
+    <t>脏话</t>
+  </si>
+  <si>
+    <t>妈逼</t>
+  </si>
+  <si>
+    <t>MLGB</t>
+  </si>
+  <si>
+    <t>草你妈</t>
+  </si>
+  <si>
+    <t>色情</t>
+  </si>
+  <si>
+    <t>草逼</t>
+  </si>
+  <si>
+    <t>巨乳</t>
+  </si>
+  <si>
+    <t>巨奶</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>法沦功</t>
+  </si>
+  <si>
+    <t>天安门事件</t>
   </si>
 </sst>
 </file>
@@ -63,17 +90,10 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -541,141 +561,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1059,34 +1076,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="100.307692307692" customWidth="1"/>
-    <col min="2" max="2" width="12.8173076923077" customWidth="1"/>
+    <col min="1" max="1" width="24.5192307692308" customWidth="1"/>
+    <col min="2" max="2" width="33.3365384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="150" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1094,10 +1114,74 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
